--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Clcf1-Il6st.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H2">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J2">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>158.3973865982479</v>
+        <v>172.3318947698164</v>
       </c>
       <c r="R2">
-        <v>158.3973865982479</v>
+        <v>1550.987052928348</v>
       </c>
       <c r="S2">
-        <v>0.04780523380427112</v>
+        <v>0.04569732553680386</v>
       </c>
       <c r="T2">
-        <v>0.04780523380427112</v>
+        <v>0.04569732553680384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H3">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J3">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>228.2641514110771</v>
+        <v>249.3065693065173</v>
       </c>
       <c r="R3">
-        <v>228.2641514110771</v>
+        <v>2243.759123758656</v>
       </c>
       <c r="S3">
-        <v>0.06889142151705667</v>
+        <v>0.06610873437723654</v>
       </c>
       <c r="T3">
-        <v>0.06889142151705667</v>
+        <v>0.06610873437723654</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H4">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I4">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J4">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>27.33416471043617</v>
+        <v>29.94187421430644</v>
       </c>
       <c r="R4">
-        <v>27.33416471043617</v>
+        <v>269.476867928758</v>
       </c>
       <c r="S4">
-        <v>0.008249606656334263</v>
+        <v>0.007939700163923709</v>
       </c>
       <c r="T4">
-        <v>0.008249606656334263</v>
+        <v>0.007939700163923705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H5">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I5">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J5">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>31.00577395817834</v>
+        <v>33.75288993144677</v>
       </c>
       <c r="R5">
-        <v>31.00577395817834</v>
+        <v>303.7760093830209</v>
       </c>
       <c r="S5">
-        <v>0.009357719247682913</v>
+        <v>0.008950268904461576</v>
       </c>
       <c r="T5">
-        <v>0.009357719247682913</v>
+        <v>0.008950268904461574</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.83683917883596</v>
+        <v>1.994409666666667</v>
       </c>
       <c r="H6">
-        <v>1.83683917883596</v>
+        <v>5.983229</v>
       </c>
       <c r="I6">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="J6">
-        <v>0.1408253429995646</v>
+        <v>0.1351966956417444</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>21.60781529335014</v>
+        <v>24.51504961193244</v>
       </c>
       <c r="R6">
-        <v>21.60781529335014</v>
+        <v>220.635446507392</v>
       </c>
       <c r="S6">
-        <v>0.006521361774219667</v>
+        <v>0.006500666659318755</v>
       </c>
       <c r="T6">
-        <v>0.006521361774219667</v>
+        <v>0.006500666659318754</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H7">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I7">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J7">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>439.736083291914</v>
+        <v>444.2013938189235</v>
       </c>
       <c r="R7">
-        <v>439.736083291914</v>
+        <v>3997.812544370311</v>
       </c>
       <c r="S7">
-        <v>0.1327148554998755</v>
+        <v>0.1177890820753667</v>
       </c>
       <c r="T7">
-        <v>0.1327148554998755</v>
+        <v>0.1177890820753666</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H8">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I8">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J8">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>633.6972222404693</v>
+        <v>642.6107350707626</v>
       </c>
       <c r="R8">
-        <v>633.6972222404693</v>
+        <v>5783.496615636863</v>
       </c>
       <c r="S8">
-        <v>0.191253432401377</v>
+        <v>0.1704013757476354</v>
       </c>
       <c r="T8">
-        <v>0.191253432401377</v>
+        <v>0.1704013757476354</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H9">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I9">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J9">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>75.88394472889749</v>
+        <v>77.17794942898355</v>
       </c>
       <c r="R9">
-        <v>75.88394472889749</v>
+        <v>694.601544860852</v>
       </c>
       <c r="S9">
-        <v>0.02290220689660961</v>
+        <v>0.02046531133444581</v>
       </c>
       <c r="T9">
-        <v>0.02290220689660961</v>
+        <v>0.0204653113344458</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H10">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I10">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J10">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>86.07691005903617</v>
+        <v>87.00119483390822</v>
       </c>
       <c r="R10">
-        <v>86.07691005903617</v>
+        <v>783.0107535051739</v>
       </c>
       <c r="S10">
-        <v>0.02597850191151422</v>
+        <v>0.0230701457076554</v>
       </c>
       <c r="T10">
-        <v>0.02597850191151422</v>
+        <v>0.02307014570765539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.09935475253223</v>
+        <v>5.140775333333333</v>
       </c>
       <c r="H11">
-        <v>5.09935475253223</v>
+        <v>15.422326</v>
       </c>
       <c r="I11">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="J11">
-        <v>0.3909533237182455</v>
+        <v>0.3484819842780147</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N11">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P11">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q11">
-        <v>59.9866971902301</v>
+        <v>63.18980721302755</v>
       </c>
       <c r="R11">
-        <v>59.9866971902301</v>
+        <v>568.7082649172479</v>
       </c>
       <c r="S11">
-        <v>0.01810432700886925</v>
+        <v>0.01675606941291145</v>
       </c>
       <c r="T11">
-        <v>0.01810432700886925</v>
+        <v>0.01675606941291145</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H12">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I12">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J12">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N12">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P12">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q12">
-        <v>70.82566259413942</v>
+        <v>72.67942615951954</v>
       </c>
       <c r="R12">
-        <v>70.82566259413942</v>
+        <v>654.1148354356759</v>
       </c>
       <c r="S12">
-        <v>0.02137558852686718</v>
+        <v>0.01927243590906872</v>
       </c>
       <c r="T12">
-        <v>0.02137558852686718</v>
+        <v>0.01927243590906872</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H13">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I13">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J13">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N13">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P13">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q13">
-        <v>102.0658239216007</v>
+        <v>105.1428026088746</v>
       </c>
       <c r="R13">
-        <v>102.0658239216007</v>
+        <v>946.2852234798719</v>
       </c>
       <c r="S13">
-        <v>0.03080404721811024</v>
+        <v>0.02788076394730847</v>
       </c>
       <c r="T13">
-        <v>0.03080404721811024</v>
+        <v>0.02788076394730846</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H14">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I14">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J14">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N14">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P14">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q14">
-        <v>12.22217341239517</v>
+        <v>12.62771606464955</v>
       </c>
       <c r="R14">
-        <v>12.22217341239517</v>
+        <v>113.649444581846</v>
       </c>
       <c r="S14">
-        <v>0.003688721576308886</v>
+        <v>0.003348497111131909</v>
       </c>
       <c r="T14">
-        <v>0.003688721576308886</v>
+        <v>0.003348497111131908</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H15">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I15">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J15">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N15">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P15">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q15">
-        <v>13.86389341386005</v>
+        <v>14.23497765587522</v>
       </c>
       <c r="R15">
-        <v>13.86389341386005</v>
+        <v>128.114798902877</v>
       </c>
       <c r="S15">
-        <v>0.004184202027070598</v>
+        <v>0.003774695385427822</v>
       </c>
       <c r="T15">
-        <v>0.004184202027070598</v>
+        <v>0.003774695385427821</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.821322590693367</v>
+        <v>0.8411243333333333</v>
       </c>
       <c r="H16">
-        <v>0.821322590693367</v>
+        <v>2.523373</v>
       </c>
       <c r="I16">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="J16">
-        <v>0.06296851508850236</v>
+        <v>0.05701799003039922</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N16">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P16">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q16">
-        <v>9.661698770604783</v>
+        <v>10.33900161341155</v>
       </c>
       <c r="R16">
-        <v>9.661698770604783</v>
+        <v>93.05101452070399</v>
       </c>
       <c r="S16">
-        <v>0.002915955740145459</v>
+        <v>0.002741597677462311</v>
       </c>
       <c r="T16">
-        <v>0.002915955740145459</v>
+        <v>0.00274159767746231</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H17">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I17">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J17">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N17">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P17">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q17">
-        <v>81.03484936487605</v>
+        <v>150.8132951023822</v>
       </c>
       <c r="R17">
-        <v>81.03484936487605</v>
+        <v>1357.31965592144</v>
       </c>
       <c r="S17">
-        <v>0.02445677926497204</v>
+        <v>0.03999122884813024</v>
       </c>
       <c r="T17">
-        <v>0.02445677926497204</v>
+        <v>0.03999122884813022</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H18">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I18">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J18">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N18">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P18">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q18">
-        <v>116.7781332902527</v>
+        <v>218.1763582301867</v>
       </c>
       <c r="R18">
-        <v>116.7781332902527</v>
+        <v>1963.58722407168</v>
       </c>
       <c r="S18">
-        <v>0.03524430601450731</v>
+        <v>0.05785392239664165</v>
       </c>
       <c r="T18">
-        <v>0.03524430601450731</v>
+        <v>0.05785392239664165</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H19">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I19">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J19">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N19">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P19">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q19">
-        <v>13.98394233260289</v>
+        <v>26.20311647958222</v>
       </c>
       <c r="R19">
-        <v>13.98394233260289</v>
+        <v>235.82804831624</v>
       </c>
       <c r="S19">
-        <v>0.004220433474771233</v>
+        <v>0.006948292104869161</v>
       </c>
       <c r="T19">
-        <v>0.004220433474771233</v>
+        <v>0.00694829210486916</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H20">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I20">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J20">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N20">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P20">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q20">
-        <v>15.86230856519807</v>
+        <v>29.53826136820889</v>
       </c>
       <c r="R20">
-        <v>15.86230856519807</v>
+        <v>265.84435231388</v>
       </c>
       <c r="S20">
-        <v>0.004787335106469326</v>
+        <v>0.007832673965183241</v>
       </c>
       <c r="T20">
-        <v>0.004787335106469326</v>
+        <v>0.007832673965183239</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.939712386429746</v>
+        <v>1.745373333333333</v>
       </c>
       <c r="H21">
-        <v>0.939712386429746</v>
+        <v>5.23612</v>
       </c>
       <c r="I21">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="J21">
-        <v>0.07204513093180635</v>
+        <v>0.1183150639869627</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N21">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O21">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P21">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q21">
-        <v>11.05438729138768</v>
+        <v>21.45392422286222</v>
       </c>
       <c r="R21">
-        <v>11.05438729138768</v>
+        <v>193.08531800576</v>
       </c>
       <c r="S21">
-        <v>0.003336277071086455</v>
+        <v>0.005688946672138426</v>
       </c>
       <c r="T21">
-        <v>0.003336277071086455</v>
+        <v>0.005688946672138424</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H22">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I22">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J22">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N22">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O22">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P22">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q22">
-        <v>374.7850048331957</v>
+        <v>434.6493359616258</v>
       </c>
       <c r="R22">
-        <v>374.7850048331957</v>
+        <v>3911.844023654631</v>
       </c>
       <c r="S22">
-        <v>0.1131122499377397</v>
+        <v>0.1152561586253323</v>
       </c>
       <c r="T22">
-        <v>0.1131122499377397</v>
+        <v>0.1152561586253323</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H23">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I23">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J23">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N23">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O23">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P23">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q23">
-        <v>540.0971753835245</v>
+        <v>628.7921045879893</v>
       </c>
       <c r="R23">
-        <v>540.0971753835245</v>
+        <v>5659.128941291904</v>
       </c>
       <c r="S23">
-        <v>0.1630044049383414</v>
+        <v>0.1667370833281297</v>
       </c>
       <c r="T23">
-        <v>0.1630044049383414</v>
+        <v>0.1667370833281297</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H24">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I24">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J24">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N24">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O24">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P24">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q24">
-        <v>64.67553078445489</v>
+        <v>75.51832330328578</v>
       </c>
       <c r="R24">
-        <v>64.67553078445489</v>
+        <v>679.6649097295719</v>
       </c>
       <c r="S24">
-        <v>0.01951944370400616</v>
+        <v>0.0200252275331466</v>
       </c>
       <c r="T24">
-        <v>0.01951944370400616</v>
+        <v>0.0200252275331466</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H25">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I25">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J25">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N25">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O25">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P25">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q25">
-        <v>73.36294740926856</v>
+        <v>85.13033072075712</v>
       </c>
       <c r="R25">
-        <v>73.36294740926856</v>
+        <v>766.1729764868139</v>
       </c>
       <c r="S25">
-        <v>0.02214135554121145</v>
+        <v>0.02257404783483862</v>
       </c>
       <c r="T25">
-        <v>0.02214135554121145</v>
+        <v>0.02257404783483862</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.34615617910361</v>
+        <v>5.030228666666667</v>
       </c>
       <c r="H26">
-        <v>4.34615617910361</v>
+        <v>15.090686</v>
       </c>
       <c r="I26">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="J26">
-        <v>0.3332076872618811</v>
+        <v>0.340988266062879</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N26">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O26">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P26">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q26">
-        <v>51.12638114221647</v>
+        <v>61.83098055716978</v>
       </c>
       <c r="R26">
-        <v>51.12638114221647</v>
+        <v>556.478825014528</v>
       </c>
       <c r="S26">
-        <v>0.01543023314058245</v>
+        <v>0.01639574874143181</v>
       </c>
       <c r="T26">
-        <v>0.01543023314058245</v>
+        <v>0.01639574874143181</v>
       </c>
     </row>
   </sheetData>
